--- a/rates.xlsx
+++ b/rates.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B136"/>
+  <dimension ref="A1:B142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1471,6 +1471,54 @@
         <v>34040932.838492</v>
       </c>
     </row>
+    <row r="137" spans="1:2">
+      <c r="A137">
+        <v>202002</v>
+      </c>
+      <c r="B137">
+        <v>34040932.838492</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138">
+        <v>202003</v>
+      </c>
+      <c r="B138">
+        <v>34176689.30046</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139">
+        <v>202003</v>
+      </c>
+      <c r="B139">
+        <v>34176689.30046</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140">
+        <v>202003</v>
+      </c>
+      <c r="B140">
+        <v>34176689.30046</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141">
+        <v>202003</v>
+      </c>
+      <c r="B141">
+        <v>34176689.30046</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142">
+        <v>202004</v>
+      </c>
+      <c r="B142">
+        <v>34074871.953984</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rates.xlsx
+++ b/rates.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B142"/>
+  <dimension ref="A1:B143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1519,6 +1519,14 @@
         <v>34074871.953984</v>
       </c>
     </row>
+    <row r="143" spans="1:2">
+      <c r="A143">
+        <v>202005</v>
+      </c>
+      <c r="B143">
+        <v>33973054.6075079</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rates.xlsx
+++ b/rates.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B143"/>
+  <dimension ref="A1:B205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1527,6 +1527,502 @@
         <v>33973054.6075079</v>
       </c>
     </row>
+    <row r="144" spans="1:2">
+      <c r="A144">
+        <v>202005</v>
+      </c>
+      <c r="B144">
+        <v>33973054.6075079</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145">
+        <v>202006</v>
+      </c>
+      <c r="B145">
+        <v>33939115.4920159</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146">
+        <v>202007</v>
+      </c>
+      <c r="B146">
+        <v>34006993.7229999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147">
+        <v>202007</v>
+      </c>
+      <c r="B147">
+        <v>34006993.7229999</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148">
+        <v>202007</v>
+      </c>
+      <c r="B148">
+        <v>34006993.7229999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149">
+        <v>202007</v>
+      </c>
+      <c r="B149">
+        <v>34006993.7229999</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150">
+        <v>202007</v>
+      </c>
+      <c r="B150">
+        <v>34006993.7229999</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151">
+        <v>202007</v>
+      </c>
+      <c r="B151">
+        <v>34006993.7229999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152">
+        <v>202007</v>
+      </c>
+      <c r="B152">
+        <v>34006993.7229999</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153">
+        <v>202007</v>
+      </c>
+      <c r="B153">
+        <v>34006993.7229999</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154">
+        <v>202007</v>
+      </c>
+      <c r="B154">
+        <v>34006993.7229999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155">
+        <v>202007</v>
+      </c>
+      <c r="B155">
+        <v>34006993.7229999</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156">
+        <v>202007</v>
+      </c>
+      <c r="B156">
+        <v>34006993.7229999</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157">
+        <v>202007</v>
+      </c>
+      <c r="B157">
+        <v>34006993.7229999</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158">
+        <v>202007</v>
+      </c>
+      <c r="B158">
+        <v>34006993.7229999</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159">
+        <v>202007</v>
+      </c>
+      <c r="B159">
+        <v>34006993.7229999</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160">
+        <v>202007</v>
+      </c>
+      <c r="B160">
+        <v>34006993.7229999</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161">
+        <v>202007</v>
+      </c>
+      <c r="B161">
+        <v>34006993.7229999</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162">
+        <v>202007</v>
+      </c>
+      <c r="B162">
+        <v>34006993.7229999</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163">
+        <v>202007</v>
+      </c>
+      <c r="B163">
+        <v>34006993.7229999</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164">
+        <v>202007</v>
+      </c>
+      <c r="B164">
+        <v>34006993.7229999</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165">
+        <v>202007</v>
+      </c>
+      <c r="B165">
+        <v>34006993.7229999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166">
+        <v>202007</v>
+      </c>
+      <c r="B166">
+        <v>34006993.7229999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167">
+        <v>202007</v>
+      </c>
+      <c r="B167">
+        <v>34006993.7229999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168">
+        <v>202007</v>
+      </c>
+      <c r="B168">
+        <v>34006993.7229999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169">
+        <v>202007</v>
+      </c>
+      <c r="B169">
+        <v>34006993.7229999</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170">
+        <v>202007</v>
+      </c>
+      <c r="B170">
+        <v>34006993.7229999</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171">
+        <v>202007</v>
+      </c>
+      <c r="B171">
+        <v>34006993.7229999</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172">
+        <v>202007</v>
+      </c>
+      <c r="B172">
+        <v>34006993.7229999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173">
+        <v>202007</v>
+      </c>
+      <c r="B173">
+        <v>34006993.7229999</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174">
+        <v>202007</v>
+      </c>
+      <c r="B174">
+        <v>34006993.7229999</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175">
+        <v>202007</v>
+      </c>
+      <c r="B175">
+        <v>34006993.7229999</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176">
+        <v>202007</v>
+      </c>
+      <c r="B176">
+        <v>34006993.7229999</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177">
+        <v>202007</v>
+      </c>
+      <c r="B177">
+        <v>34006993.7229999</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178">
+        <v>202007</v>
+      </c>
+      <c r="B178">
+        <v>34006993.7229999</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179">
+        <v>202007</v>
+      </c>
+      <c r="B179">
+        <v>34006993.7229999</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180">
+        <v>202007</v>
+      </c>
+      <c r="B180">
+        <v>34006993.7229999</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181">
+        <v>202007</v>
+      </c>
+      <c r="B181">
+        <v>34006993.7229999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182">
+        <v>202007</v>
+      </c>
+      <c r="B182">
+        <v>34006993.7229999</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183">
+        <v>202007</v>
+      </c>
+      <c r="B183">
+        <v>34006993.7229999</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184">
+        <v>202007</v>
+      </c>
+      <c r="B184">
+        <v>34006993.7229999</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185">
+        <v>202007</v>
+      </c>
+      <c r="B185">
+        <v>34006993.7229999</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186">
+        <v>202007</v>
+      </c>
+      <c r="B186">
+        <v>34006993.7229999</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187">
+        <v>202007</v>
+      </c>
+      <c r="B187">
+        <v>34006993.7229999</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188">
+        <v>202007</v>
+      </c>
+      <c r="B188">
+        <v>34006993.7229999</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189">
+        <v>202007</v>
+      </c>
+      <c r="B189">
+        <v>34006993.7229999</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190">
+        <v>202007</v>
+      </c>
+      <c r="B190">
+        <v>34006993.7229999</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191">
+        <v>202007</v>
+      </c>
+      <c r="B191">
+        <v>34006993.7229999</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192">
+        <v>202007</v>
+      </c>
+      <c r="B192">
+        <v>34006993.7229999</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193">
+        <v>202007</v>
+      </c>
+      <c r="B193">
+        <v>34006993.7229999</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194">
+        <v>202007</v>
+      </c>
+      <c r="B194">
+        <v>34006993.7229999</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195">
+        <v>202007</v>
+      </c>
+      <c r="B195">
+        <v>34006993.7229999</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196">
+        <v>202007</v>
+      </c>
+      <c r="B196">
+        <v>34006993.7229999</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197">
+        <v>202007</v>
+      </c>
+      <c r="B197">
+        <v>34006993.7229999</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198">
+        <v>202007</v>
+      </c>
+      <c r="B198">
+        <v>34006993.7229999</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199">
+        <v>202007</v>
+      </c>
+      <c r="B199">
+        <v>34006993.7229999</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200">
+        <v>202007</v>
+      </c>
+      <c r="B200">
+        <v>34006993.7229999</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201">
+        <v>202007</v>
+      </c>
+      <c r="B201">
+        <v>34006993.7229999</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202">
+        <v>202007</v>
+      </c>
+      <c r="B202">
+        <v>34006993.7229999</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203">
+        <v>202007</v>
+      </c>
+      <c r="B203">
+        <v>34006993.7229999</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204">
+        <v>202007</v>
+      </c>
+      <c r="B204">
+        <v>34006993.7229999</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205">
+        <v>202007</v>
+      </c>
+      <c r="B205">
+        <v>34006993.7229999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rates.xlsx
+++ b/rates.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B205"/>
+  <dimension ref="A1:B206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2023,6 +2023,14 @@
         <v>34006993.7229999</v>
       </c>
     </row>
+    <row r="206" spans="1:2">
+      <c r="A206">
+        <v>202008</v>
+      </c>
+      <c r="B206">
+        <v>34006993.7229999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rates.xlsx
+++ b/rates.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B206"/>
+  <dimension ref="A1:B209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2031,6 +2031,30 @@
         <v>34006993.7229999</v>
       </c>
     </row>
+    <row r="207" spans="1:2">
+      <c r="A207">
+        <v>202009</v>
+      </c>
+      <c r="B207">
+        <v>33973054.6075079</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208">
+        <v>202010</v>
+      </c>
+      <c r="B208">
+        <v>34074871.953984</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209">
+        <v>202011</v>
+      </c>
+      <c r="B209">
+        <v>34006993.7229999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
